--- a/project/station_dashboards/test/Test_Station_get_data_df.xlsx
+++ b/project/station_dashboards/test/Test_Station_get_data_df.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,45 +459,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.74</v>
+        <v>4.07</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MORRISONS</t>
+          <t>TESCO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MORRISONS WINCANTON 2</t>
+          <t>TESCO WALTHAM ABBEY</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SOUTHGATE ROAD</t>
+          <t>SEWARDSTONE ROAD</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>WINCANTON</t>
+          <t>WALTHAM ABBEY</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>ESSEX</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BA9 9EB</t>
+          <t>EN9 1JH</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -506,29 +506,29 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>128.9</v>
+        <v>123.9</v>
       </c>
       <c r="M2" t="n">
-        <v>128.8754656429463</v>
+        <v>123.8550561794526</v>
       </c>
       <c r="N2" t="n">
-        <v>0.009054645261699079</v>
+        <v>0.001482215595089542</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Additive</t>
+          <t>ARIMA((0, 1, 0))</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17/08/2019 16:38:00</t>
+          <t>14/08/2019 13:09:00</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>51.0514774103974</v>
+        <v>51.6817903812994</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.4134949035714</v>
+        <v>-0.002875417936538</v>
       </c>
     </row>
     <row r="3">
@@ -537,45 +537,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>3.19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SHELL</t>
+          <t>ASDA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ANCHOR HILL SERVICE STATION</t>
+          <t>ASDA TOTTENHAM WHITE HART LANE PFS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A357</t>
+          <t>WHITE HART LANE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>WINCANTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>INNER LONDON</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>N17 7LY</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>129.9</v>
+        <v>125.7</v>
       </c>
       <c r="M3" t="n">
-        <v>129.9</v>
+        <v>125.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.02898550724637516</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -599,14 +599,14 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>05/08/2019 14:31:00</t>
+          <t>17/08/2019 20:15:00</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>51.0452745337479</v>
+        <v>51.6065535310744</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.43286821426908</v>
+        <v>-0.091168732968424</v>
       </c>
     </row>
     <row r="4">
@@ -615,45 +615,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.58</v>
+        <v>3.95</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEXACO</t>
+          <t>MORRISONS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BRUTON COUNTRY MARKET</t>
+          <t>MORRISONS CHINGFORD</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>LEGGS LUSTY BRIDGE</t>
+          <t>SALISBURY HALL GARDENS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>OUTER LONDON</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BA10 0BQ</t>
+          <t>E4 8SA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -662,29 +662,25 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>131.9</v>
+        <v>125.9</v>
       </c>
       <c r="M4" t="n">
-        <v>131.9</v>
+        <v>125.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
+        <v>99999</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>14/08/2019 16:00:00</t>
+          <t>14/08/2019 21:58:00</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>51.1099175559563</v>
+        <v>51.60609825516</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.45922737611235</v>
+        <v>-0.017059077302857</v>
       </c>
     </row>
     <row r="5">
@@ -693,45 +689,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.62</v>
+        <v>3.21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PACE</t>
+          <t>TESCO EXTRA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CENTRE GARAGE</t>
+          <t>TESCO LEA VALLEY EXTRA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PARK STREET</t>
+          <t>GLOVER DRIVE</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CASTLE CARY</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>OUTER LONDON</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BA7 7ED</t>
+          <t>N18 3HF</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -740,29 +736,29 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>135.9</v>
+        <v>125.9</v>
       </c>
       <c r="M5" t="n">
-        <v>135.9740250488626</v>
+        <v>125.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004342717341643265</v>
+        <v>0.01449275362318758</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Additive</t>
+          <t>Simple</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>22/07/2019 13:43:00</t>
+          <t>17/08/2019 18:46:00</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>51.0872831705668</v>
+        <v>51.609962013763</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.51555697267952</v>
+        <v>-0.048535036213301</v>
       </c>
     </row>
     <row r="6">
@@ -771,45 +767,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MORRISONS</t>
+          <t>ESSO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MORRISONS WINCANTON 2</t>
+          <t>MFG HIGHFIELDS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SOUTHGATE ROAD</t>
+          <t>GREEN LANES</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>WINCANTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>OUTER LONDON</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>BA9 9EB</t>
+          <t>N21 3RL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -818,29 +814,29 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>128.9</v>
+        <v>125.9</v>
       </c>
       <c r="M6" t="n">
-        <v>128.8754656429463</v>
+        <v>125.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009054645261699079</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Additive</t>
+          <t>Simple</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>17/08/2019 16:38:00</t>
+          <t>17/08/2019 18:43:00</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>51.0514774103974</v>
+        <v>51.6298088950792</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.4134949035714</v>
+        <v>-0.096766978329796</v>
       </c>
     </row>
     <row r="7">
@@ -849,45 +845,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>1.22</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SHELL</t>
+          <t>TESCO EXTRA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ANCHOR HILL SERVICE STATION</t>
+          <t>TESCO PONDERS END EXTRA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A357</t>
+          <t>HIGH STREET</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>WINCANTON</t>
+          <t>ENFIELD</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>OUTER LONDON</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN3 4DP</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -896,13 +892,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>129.9</v>
+        <v>125.9</v>
       </c>
       <c r="M7" t="n">
-        <v>129.9</v>
+        <v>125.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.01449275362318758</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -911,14 +907,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>05/08/2019 14:31:00</t>
+          <t>14/08/2019 16:04:00</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>51.0452745337479</v>
+        <v>51.6480166019087</v>
       </c>
       <c r="R7" t="n">
-        <v>-2.43286821426908</v>
+        <v>-0.047363753753944</v>
       </c>
     </row>
     <row r="8">
@@ -927,45 +923,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.58</v>
+        <v>0.84</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEXACO</t>
+          <t>MORRISONS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BRUTON COUNTRY MARKET</t>
+          <t>MORRISONS ENFIELD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LEGGS LUSTY BRIDGE</t>
+          <t>SOUTHBURY ROAD</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>ENFIELD</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>OUTER LONDON</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>BA10 0BQ</t>
+          <t>EN1 1TW</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -974,13 +970,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>131.9</v>
+        <v>125.9</v>
       </c>
       <c r="M8" t="n">
-        <v>131.9</v>
+        <v>125.8999951808125</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03125</v>
+        <v>0.02899515254556206</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -989,14 +985,14 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>14/08/2019 16:00:00</t>
+          <t>07/08/2019 18:14:00</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>51.1099175559563</v>
+        <v>51.6474769539579</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.45922737611235</v>
+        <v>-0.057114997736329</v>
       </c>
     </row>
     <row r="9">
@@ -1005,45 +1001,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2019-08-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BA9 8AE</t>
+          <t>EN1 1AA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.62</v>
+        <v>4.82</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACE</t>
+          <t>TESCO EXTRA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CENTRE GARAGE</t>
+          <t>TESCO CHESHUNT EXTRA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PARK STREET</t>
+          <t>BROOKFIELD CENTRE</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CASTLE CARY</t>
+          <t>WALTHAM CROSS</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SOMERSET</t>
+          <t>HERTFORDSHIRE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>BA7 7ED</t>
+          <t>EN8 0TA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1052,29 +1048,185 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>135.9</v>
+        <v>126.9</v>
       </c>
       <c r="M9" t="n">
-        <v>135.9740250488626</v>
+        <v>126.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004342717341643265</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>14/08/2019 17:55:00</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>51.7180098975239</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.037444267576971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EN1 1AA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TESCO EXTRA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TESCO COLNEY HATCH EXTRA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NORTH CIRCULAR ROAD</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OUTER LONDON</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N12 0SH</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>126.9722430434028</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.000243012296039069</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Additive</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>22/07/2019 13:43:00</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>51.0872831705668</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-2.51555697267952</v>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>14/08/2019 18:32:00</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>51.6069303323925</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.156371800219188</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EN1 1AA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SAINSBURYS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SAINSBURYS LOW HALL</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>WALTHAMSTOW AVENUE</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>OUTER LONDON</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>E4 8ST</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>126.9022471910112</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.04463109391377884</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>ARIMA((0, 1, 0))</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>17/08/2019 23:39:00</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>51.6041242111003</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.021044169921268</v>
       </c>
     </row>
   </sheetData>
